--- a/files/Metadata_Metabolomics 2019 _checked 2020_updated.xlsx
+++ b/files/Metadata_Metabolomics 2019 _checked 2020_updated.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10308"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10323"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/siamakdehkordi/Desktop/Duke/Cal Tech PD Mice/upload to box/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/josephboktor/Documents/ASO_model_metabolomics/files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1DCCF6F-C566-9942-BB1B-16278C98F6BB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE88E9FE-0B98-6246-9137-89DA2ABC8473}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15840" xr2:uid="{A75BB137-5E6D-482B-9ADC-525D698B28B8}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15840" activeTab="1" xr2:uid="{A75BB137-5E6D-482B-9ADC-525D698B28B8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="33">
   <si>
     <t xml:space="preserve">Weights in mg </t>
   </si>
@@ -123,6 +124,15 @@
   </si>
   <si>
     <t>XX</t>
+  </si>
+  <si>
+    <t>body_weight</t>
+  </si>
+  <si>
+    <t>MouseID</t>
+  </si>
+  <si>
+    <t>group</t>
   </si>
 </sst>
 </file>
@@ -258,7 +268,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -291,6 +301,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -608,8 +627,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8F38F27-300E-4183-B2AB-AA5E68A9E200}">
   <dimension ref="A1:U37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2274,4 +2293,527 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{363CC1B0-F7C9-294F-A328-811F3BE35F72}">
+  <dimension ref="A1:F24"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="4" width="10.83203125" style="14"/>
+    <col min="5" max="5" width="14.1640625" style="14" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="10.83203125" style="14"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="F1" s="13" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" s="13">
+        <v>1</v>
+      </c>
+      <c r="B2" s="15">
+        <v>2154</v>
+      </c>
+      <c r="C2" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" s="15" t="str">
+        <f>_xlfn.CONCAT(D2, "_", C2)</f>
+        <v>ASO_GF</v>
+      </c>
+      <c r="F2" s="13">
+        <v>25.3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" s="13">
+        <v>2</v>
+      </c>
+      <c r="B3" s="15">
+        <v>2155</v>
+      </c>
+      <c r="C3" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" s="15" t="str">
+        <f t="shared" ref="E3:E24" si="0">_xlfn.CONCAT(D3, "_", C3)</f>
+        <v>WT_GF</v>
+      </c>
+      <c r="F3" s="13">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" s="13">
+        <v>3</v>
+      </c>
+      <c r="B4" s="15">
+        <v>2157</v>
+      </c>
+      <c r="C4" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v>ASO_GF</v>
+      </c>
+      <c r="F4" s="13">
+        <v>25.8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" s="13">
+        <v>4</v>
+      </c>
+      <c r="B5" s="15">
+        <v>2175</v>
+      </c>
+      <c r="C5" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v>WT_GF</v>
+      </c>
+      <c r="F5" s="13">
+        <v>37.9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" s="13">
+        <v>5</v>
+      </c>
+      <c r="B6" s="15">
+        <v>3016</v>
+      </c>
+      <c r="C6" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v>ASO_GF</v>
+      </c>
+      <c r="F6" s="13">
+        <v>23.9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" s="13">
+        <v>6</v>
+      </c>
+      <c r="B7" s="15">
+        <v>2176</v>
+      </c>
+      <c r="C7" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="E7" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v>WT_GF</v>
+      </c>
+      <c r="F7" s="13">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" s="13">
+        <v>7</v>
+      </c>
+      <c r="B8" s="15">
+        <v>3017</v>
+      </c>
+      <c r="C8" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="E8" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v>WT_GF</v>
+      </c>
+      <c r="F8" s="13">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" s="13">
+        <v>8</v>
+      </c>
+      <c r="B9" s="15">
+        <v>1599</v>
+      </c>
+      <c r="C9" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="E9" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v>ASO_SPF</v>
+      </c>
+      <c r="F9" s="13">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10" s="13">
+        <v>9</v>
+      </c>
+      <c r="B10" s="15">
+        <v>1608</v>
+      </c>
+      <c r="C10" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="D10" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="E10" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v>WT_SPF</v>
+      </c>
+      <c r="F10" s="13">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11" s="13">
+        <v>10</v>
+      </c>
+      <c r="B11" s="15">
+        <v>1600</v>
+      </c>
+      <c r="C11" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="D11" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="E11" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v>ASO_SPF</v>
+      </c>
+      <c r="F11" s="13">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12" s="13">
+        <v>11</v>
+      </c>
+      <c r="B12" s="15">
+        <v>1609</v>
+      </c>
+      <c r="C12" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="D12" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="E12" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v>WT_SPF</v>
+      </c>
+      <c r="F12" s="13">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13" s="13">
+        <v>12</v>
+      </c>
+      <c r="B13" s="15">
+        <v>1610</v>
+      </c>
+      <c r="C13" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="D13" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="E13" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v>WT_SPF</v>
+      </c>
+      <c r="F13" s="13">
+        <v>37.6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14" s="13">
+        <v>13</v>
+      </c>
+      <c r="B14" s="15">
+        <v>1616</v>
+      </c>
+      <c r="C14" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="D14" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="E14" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v>WT_SPF</v>
+      </c>
+      <c r="F14" s="13">
+        <v>36.5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15" s="13">
+        <v>14</v>
+      </c>
+      <c r="B15" s="15">
+        <v>1617</v>
+      </c>
+      <c r="C15" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="D15" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="E15" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v>ASO_SPF</v>
+      </c>
+      <c r="F15" s="13">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A16" s="13">
+        <v>15</v>
+      </c>
+      <c r="B16" s="15">
+        <v>1618</v>
+      </c>
+      <c r="C16" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="D16" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="E16" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v>WT_SPF</v>
+      </c>
+      <c r="F16" s="13">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A17" s="13">
+        <v>16</v>
+      </c>
+      <c r="B17" s="15">
+        <v>1619</v>
+      </c>
+      <c r="C17" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="D17" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="E17" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v>ASO_SPF</v>
+      </c>
+      <c r="F17" s="13">
+        <v>25.6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A18" s="13">
+        <v>17</v>
+      </c>
+      <c r="B18" s="15">
+        <v>1568</v>
+      </c>
+      <c r="C18" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="D18" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="E18" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v>ASO_SPF</v>
+      </c>
+      <c r="F18" s="13">
+        <v>28.2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A19" s="13">
+        <v>18</v>
+      </c>
+      <c r="B19" s="15">
+        <v>1569</v>
+      </c>
+      <c r="C19" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="D19" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="E19" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v>ASO_SPF</v>
+      </c>
+      <c r="F19" s="13">
+        <v>33.6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A20" s="13">
+        <v>19</v>
+      </c>
+      <c r="B20" s="15">
+        <v>3002</v>
+      </c>
+      <c r="C20" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="D20" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="E20" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v>ASO_GF</v>
+      </c>
+      <c r="F20" s="13">
+        <v>30.6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A21" s="13">
+        <v>20</v>
+      </c>
+      <c r="B21" s="15">
+        <v>3003</v>
+      </c>
+      <c r="C21" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="D21" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="E21" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v>WT_GF</v>
+      </c>
+      <c r="F21" s="13">
+        <v>30.6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A22" s="13">
+        <v>21</v>
+      </c>
+      <c r="B22" s="15">
+        <v>3004</v>
+      </c>
+      <c r="C22" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="D22" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="E22" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v>ASO_GF</v>
+      </c>
+      <c r="F22" s="13">
+        <v>30.7</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A23" s="13">
+        <v>22</v>
+      </c>
+      <c r="B23" s="15">
+        <v>3017</v>
+      </c>
+      <c r="C23" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="D23" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="E23" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v>WT_GF</v>
+      </c>
+      <c r="F23" s="13">
+        <v>38.799999999999997</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A24" s="13">
+        <v>23</v>
+      </c>
+      <c r="B24" s="15">
+        <v>3018</v>
+      </c>
+      <c r="C24" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="D24" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="E24" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v>ASO_GF</v>
+      </c>
+      <c r="F24" s="13">
+        <v>31.5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>